--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C00ECE-FF0E-4E49-B9F2-A1B2754EB8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E2FD7D-DCA8-4A32-8D55-1DF866200279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="10965" xr2:uid="{63F6D8BA-F652-47C6-A5FA-7276899F0B62}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="18900" windowHeight="10965" xr2:uid="{0DD9078D-E74D-4C46-8ACF-FCCEA606557E}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -1764,10 +1764,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65ABA04-4993-4062-A241-E1B7AF9454ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FAD395-D5DA-4306-8992-A84CFCEB082C}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:I61"/>
     </sheetView>
   </sheetViews>
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EB2AF6-F91D-4FA9-A208-3ADA72E3EB9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDFD2F2-79B1-4F3D-BE91-B5321AC9F455}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4092,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5838552-4E29-486A-8386-BC34CF8C447E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1028FC53-D750-4175-BD22-8A3C0CB0A297}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E2FD7D-DCA8-4A32-8D55-1DF866200279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B80BA2-277A-4558-BBCE-6C1A0767711F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="18900" windowHeight="10965" xr2:uid="{0DD9078D-E74D-4C46-8ACF-FCCEA606557E}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18900" windowHeight="10965" xr2:uid="{31A6CF48-39D0-43D4-A4AD-17E1B6DC96C9}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -1764,10 +1764,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FAD395-D5DA-4306-8992-A84CFCEB082C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C04BA-A8ED-446A-9AE7-550A89D83DA1}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:I61"/>
     </sheetView>
   </sheetViews>
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDFD2F2-79B1-4F3D-BE91-B5321AC9F455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADEBD5B-D373-413A-9839-3B13FB34C86B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4092,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1028FC53-D750-4175-BD22-8A3C0CB0A297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E09FD-28CE-40E4-A911-7188FDE3C3EC}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B80BA2-277A-4558-BBCE-6C1A0767711F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{056E243D-73AE-4245-857F-8A75EC7290E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18900" windowHeight="10965" xr2:uid="{31A6CF48-39D0-43D4-A4AD-17E1B6DC96C9}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="10965" xr2:uid="{CD7EB654-192C-4A5B-9482-8945DB0EF700}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -1764,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C04BA-A8ED-446A-9AE7-550A89D83DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54847F8-1056-4CD1-83AB-74DAA1E06F93}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADEBD5B-D373-413A-9839-3B13FB34C86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40974C56-2F29-4E1F-A227-CF8907C2327F}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4092,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E09FD-28CE-40E4-A911-7188FDE3C3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ADE31D-4BD2-4E85-82BE-CE28D5BB1E5A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
+++ b/KUtil/KMM1_MR01/_Data/20231215-01@자재(품목)청구서_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{056E243D-73AE-4245-857F-8A75EC7290E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{818597DD-04DA-42AD-9877-D0A9D72AE716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="10965" xr2:uid="{CD7EB654-192C-4A5B-9482-8945DB0EF700}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18900" windowHeight="10965" xr2:uid="{F3A8D716-CC8B-490A-8A18-C15A90EC9551}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -1764,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54847F8-1056-4CD1-83AB-74DAA1E06F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85FB593-0F72-4D93-81CD-CC7B3E08C919}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40974C56-2F29-4E1F-A227-CF8907C2327F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A38986F-B2F1-45E1-ACC1-3B681962EA62}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4092,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ADE31D-4BD2-4E85-82BE-CE28D5BB1E5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040219F5-4D0E-4015-A8DE-A1CA81C76077}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
